--- a/DOM_Banner/output/dept_banner/Puneet Shroff_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Puneet Shroff_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,350 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Gary Soffer, Puneet Shroff, Randy Horwitz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297282979</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Safety Considerations for Natural Products Commonly Used By Patients with Allergic Disease</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5036315849", "https://openalex.org/A5026056645", "https://openalex.org/A5007947694"), au_display_name = c("Gary Soffer", "Puneet Shroff", "Randy Horwitz"), au_orcid = c("https://orcid.org/0000-0003-1641-3136", NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Department of Integrative Medicine, Smilow Cancer Center, Yale School of Medicine, New Haven Connecticut; Department of Pulmonology, Allergy Immunology and Sleep Medicine, Department of Pediatrics, Yale School of Medicine, New Haven, Connecticut", 
-"", ""), institution_id = c("https://openalex.org/I32971472", NA, NA), institution_display_name = c("Yale University", NA, NA), institution_ror = c("https://ror.org/03v76x132", NA, NA), institution_country_code = c("US", NA, NA), institution_type = c("education", NA, NA), institution_lineage = c("https://openalex.org/I32971472", NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Natural products are a category of Complementary and Alternative Medicine that includes medicinal plants, vitamins, and dietary supplements. These products are often utilized by patients with allergies in conjunction with, or as an alternative to, their conventional medical therapies. Despite the wide use of these modalities, many clinicians often have limited knowledge and training in their use. It is important for health care providers to know the safety and risks of these products that their patients may use. This Clinical Commentary reviews the side effects and adverse reactions of several natural products commonly used by patients with allergies and gives an overview of the U.S. Food and Drug Administration requirements for manufacturing, advertising and distribution.</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2754868259</t>
+          <t>https://doi.org/10.1016/j.jaip.2022.09.025</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2213-2198</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36174919</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.jaip.2022.09.025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3131</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3138</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4297282979</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4297282979", doi = "https://doi.org/10.1016/j.jaip.2022.09.025", pmid = "https://pubmed.ncbi.nlm.nih.gov/36174919")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jaip.2022.09.025</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W19506711", "https://openalex.org/W1511666183", "https://openalex.org/W1541489910", "https://openalex.org/W1862547113", "https://openalex.org/W1941151067", "https://openalex.org/W1949939646", "https://openalex.org/W1965912922", "https://openalex.org/W1966379370", "https://openalex.org/W1975198421", "https://openalex.org/W1978695620", "https://openalex.org/W1978903243", "https://openalex.org/W1996700728", "https://openalex.org/W2001003469", "https://openalex.org/W2001444572", 
-"https://openalex.org/W2013368296", "https://openalex.org/W2020648044", "https://openalex.org/W2025349373", "https://openalex.org/W2027766463", "https://openalex.org/W2033949959", "https://openalex.org/W2059369408", "https://openalex.org/W2066584451", "https://openalex.org/W2066705043", "https://openalex.org/W2072742806", "https://openalex.org/W2080660202", "https://openalex.org/W2112070649", "https://openalex.org/W2113084599", "https://openalex.org/W2115823658", "https://openalex.org/W2121341602", 
-"https://openalex.org/W2131413811", "https://openalex.org/W2142195202", "https://openalex.org/W2146364460", "https://openalex.org/W2148597002", "https://openalex.org/W2154870064", "https://openalex.org/W2164854982", "https://openalex.org/W2317982899", "https://openalex.org/W2321334948", "https://openalex.org/W2330664058", "https://openalex.org/W2418206838", "https://openalex.org/W2534009926", "https://openalex.org/W2551817902", "https://openalex.org/W2552303636", "https://openalex.org/W2585372690", 
-"https://openalex.org/W2598747689", "https://openalex.org/W2784161661", "https://openalex.org/W2789926922", "https://openalex.org/W2799631956", "https://openalex.org/W2801116806", "https://openalex.org/W2843736587", "https://openalex.org/W2884395884", "https://openalex.org/W2885447762", "https://openalex.org/W2889141256", "https://openalex.org/W2891582902", "https://openalex.org/W2896771549", "https://openalex.org/W2946654165", "https://openalex.org/W2964163911", "https://openalex.org/W2981215266", 
-"https://openalex.org/W2999622127", "https://openalex.org/W3006610515", "https://openalex.org/W3031181626", "https://openalex.org/W3106192529", "https://openalex.org/W3112154351", "https://openalex.org/W3136726675", "https://openalex.org/W3164885453", "https://openalex.org/W3176634927", "https://openalex.org/W3185940973", "https://openalex.org/W3194958214", "https://openalex.org/W3203031064", "https://openalex.org/W4200427751", "https://openalex.org/W4206325184", "https://openalex.org/W4213457188", 
-"https://openalex.org/W4220718960", "https://openalex.org/W4223477378", "https://openalex.org/W4223593845", "https://openalex.org/W4224232986", "https://openalex.org/W4226375785", "https://openalex.org/W4254122580", "https://openalex.org/W4280632994")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W84484533", "https://openalex.org/W4304688538", "https://openalex.org/W2014831094", "https://openalex.org/W2233413425", "https://openalex.org/W39115325", "https://openalex.org/W4212807426", "https://openalex.org/W2113587124", "https://openalex.org/W2374781999", "https://openalex.org/W2082482010", "https://openalex.org/W4235078418")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Puneet Shroff_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Puneet Shroff_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Integrative Medicine, Smilow Cancer Center, Yale School of Medicine, New Haven Connecticut; Department of Pulmonology, Allergy Immunology and Sleep Medicine, Department of Pediatrics, Yale School of Medicine, New Haven, Connecticut; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297282979</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Safety Considerations for Natural Products Commonly Used By Patients with Allergic Disease</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2022.09.025</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36174919</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2022.09.025</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
